--- a/Figures-Tables-Manuscript/Manuscript/T3_PERCENT-VARIANCE.xlsx
+++ b/Figures-Tables-Manuscript/Manuscript/T3_PERCENT-VARIANCE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocelynreahl/Documents/BergmannLab_2018-2020/Reahl_2020/Figures-Tables-Manuscript/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E2889D-8116-E040-9D46-F9F5572354AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7714596-9014-0B47-8DEB-3E5EFC1A7F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="17280" windowHeight="14200" xr2:uid="{518C58FA-5700-0944-8000-A111B528B103}"/>
   </bookViews>
@@ -56,13 +56,13 @@
     <t>PCA Ordination</t>
   </si>
   <si>
-    <t>Table [PERCENT-VARIANCE]. Percentage variance of each principal component axis for each PCA ordination.</t>
-  </si>
-  <si>
     <t>Individual [%]</t>
   </si>
   <si>
     <t>Cumulative [%]</t>
+  </si>
+  <si>
+    <t>Table 3. Percentage variance of each principal component axis for each PCA ordination.</t>
   </si>
 </sst>
 </file>
@@ -144,6 +144,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -151,9 +154,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -470,137 +470,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE486A5E-306E-5B4C-8BE4-BFC1576F7F74}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="5" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="4" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="7">
+        <v>27.01</v>
+      </c>
       <c r="D4" s="7">
+        <f>C4</f>
         <v>27.01</v>
       </c>
-      <c r="E4" s="7">
-        <f>D4</f>
-        <v>27.01</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="7">
+        <v>21.33</v>
+      </c>
       <c r="D5" s="7">
-        <v>21.33</v>
-      </c>
-      <c r="E5" s="7">
-        <f>D5+E4</f>
+        <f>C5+D4</f>
         <v>48.34</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="C6" s="8">
+        <v>17.43</v>
+      </c>
       <c r="D6" s="8">
-        <v>17.43</v>
-      </c>
-      <c r="E6" s="8">
-        <f>D6+E5</f>
+        <f>C6+D5</f>
         <v>65.77000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="C7" s="8">
+        <v>28.37</v>
+      </c>
       <c r="D7" s="8">
+        <f>C7</f>
         <v>28.37</v>
       </c>
-      <c r="E7" s="8">
-        <f>D7</f>
-        <v>28.37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="C8" s="8">
+        <v>20.04</v>
+      </c>
       <c r="D8" s="8">
-        <v>20.04</v>
-      </c>
-      <c r="E8" s="8">
-        <f>D8+E7</f>
+        <f>C8+D7</f>
         <v>48.41</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C9" s="4">
+        <v>17.32</v>
+      </c>
       <c r="D9" s="4">
-        <v>17.32</v>
-      </c>
-      <c r="E9" s="4">
-        <f>D9+E8</f>
+        <f>C9+D8</f>
         <v>65.72999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E7" formula="1"/>
+    <ignoredError sqref="D7" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>